--- a/TrueAug_SymDiGCN_cora_ml12-20-11:21:38_dir.xlsx
+++ b/TrueAug_SymDiGCN_cora_ml12-20-11:21:38_dir.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,26 +871,264 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:3, time:16.340069, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+          <t>Epoch:37, time:12.507325, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:2, time:13.725510, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:36, time:12.534775, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:1, time:13.949240, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:35, time:13.674717, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:12.946758, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:13.831529, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:13.822289, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:13.240233, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:12.914224, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:13.435988, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:12.853889, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:12.370879, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:13.745995, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:12.856320, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:12.774760, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:13.024036, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:12.740284, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:14.648447, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:13.805871, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:15.550608, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:13.264231, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:13.626065, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:15.023165, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:13.259461, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:15.370423, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:13.691176, test_Acc: 20.59, test_bacc: 23.44, test_f1: 12.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:14.316720, test_Acc: 20.81, test_bacc: 23.71, test_f1: 11.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:13.202807, test_Acc: 17.79, test_bacc: 20.09, test_f1: 11.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:13.453429, test_Acc: 17.92, test_bacc: 20.21, test_f1: 11.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:13.014410, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:14.635460, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:13.738940, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:14.560885, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:12.919443, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:13.857764, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:16.340069, test_Acc: 16.56, test_bacc: 17.47, test_f1: 6.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:13.725510, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:13.949240, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Epoch:0, time:16.396124, test_Acc: 9.55, test_bacc: 14.30, test_f1: 2.96</t>
         </is>
